--- a/sample_insert_rows.xlsx
+++ b/sample_insert_rows.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,47 +504,48 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>78</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>55</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>99</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>65</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>13</v>
       </c>
     </row>
